--- a/biology/Histoire de la zoologie et de la botanique/Gustave-Frédéric_Dollfus/Gustave-Frédéric_Dollfus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustave-Frédéric_Dollfus/Gustave-Frédéric_Dollfus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustave-Fr%C3%A9d%C3%A9ric_Dollfus</t>
+          <t>Gustave-Frédéric_Dollfus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustave-Frédéric Dollfus, né à Paris le 26 novembre 1850 et mort à Paris le 6 novembre 1931[1], est un géologue, malacologue et phycologue français. Issu de la famille Dollfus de Mulhouse, il a été parmi les premiers paléontologues transformistes, président à deux reprises de la Société géologique de France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustave-Frédéric Dollfus, né à Paris le 26 novembre 1850 et mort à Paris le 6 novembre 1931, est un géologue, malacologue et phycologue français. Issu de la famille Dollfus de Mulhouse, il a été parmi les premiers paléontologues transformistes, président à deux reprises de la Société géologique de France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gustave-Fr%C3%A9d%C3%A9ric_Dollfus</t>
+          <t>Gustave-Frédéric_Dollfus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Frédéric Dollfus (1803-1856) originaire de Mulhouse et de Noémie Martin (1820-1915)[2], et le père de Robert-Philippe Dollfus, zoologiste.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Frédéric Dollfus (1803-1856) originaire de Mulhouse et de Noémie Martin (1820-1915), et le père de Robert-Philippe Dollfus, zoologiste.
 Au cours d'un sondage effectué en 1869 dans sa propriété de Dornach (proche de Mulhouse) mis en évidence la présence de sel gemme dans le sous-sol de la région. Cette découverte allait se traduire par un événement industriel essentiel pour Mulhouse et sa région : les Mines de Potasse d'Alsace. En 1904, en effet, le trépan d'une sondeuse perfora une couche de potasse à 625 mètres de profondeur dans la plaine d'Alsace à l'Ouest de Mulhouse initiant l'exploitation du bassin potassique d'Alsace, une zone comprise dans une dépression limitée au Sud par le Jura, à l'Est par la Forêt-Noire (Vosges et Forêt Noire formaient un seul massif à l'ère primaire), à l'Ouest par les Vosges, avec deux barres, l'une dans la région du Sundgau, l'autre vers le Nord de la vallée du Rhin.
 Il participe au congrès du millénaire normand à Rouen en 1911.
 Il s'intéresse beaucoup à la question du tunnel sous la Manche.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustave-Fr%C3%A9d%C3%A9ric_Dollfus</t>
+          <t>Gustave-Frédéric_Dollfus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de la Société géologique de France (1873), secrétaire (1876) puis président (en 1896 et 1916).
 Membre de la commission de bibliographie scientifique au Ministère de l'instruction publique.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gustave-Fr%C3%A9d%C3%A9ric_Dollfus</t>
+          <t>Gustave-Frédéric_Dollfus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>avec E. Vieillard, Étude géologique sur les terrains crétacés et tertiaires du Cotentin, Caen, Imprimerie F. Leblanc-Hardel, 1875, 181 p. (lire en ligne), 2 planches
 Notice sur une nouvelle carte géologique des environs de Paris, Berlin, A. W. Schade, 1885, 123 p. (lire en ligne)
